--- a/2023年4月期中考试原143考试成绩.xlsx
+++ b/2023年4月期中考试原143考试成绩.xlsx
@@ -6122,7 +6122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM51"/>
+  <dimension ref="A1:BM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18123,6 +18123,10 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="L52" s="2" t="n"/>
+      <c r="BH52" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:BM1"/>
